--- a/assets/Attacks sorted.xlsx
+++ b/assets/Attacks sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tammy/Java_Help/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9222BCC-B94F-F746-908A-0B23D6781D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95116692-3670-7049-A676-0988A93EA617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{EE490292-CF19-1C42-976E-3DC30F432F3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Attacks</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Chain</t>
-  </si>
-  <si>
     <t>Flash loan attack</t>
   </si>
   <si>
@@ -80,15 +77,9 @@
     <t>ForceDAO</t>
   </si>
   <si>
-    <t>Mirror protocol</t>
-  </si>
-  <si>
     <t>Arbix Finance</t>
   </si>
   <si>
-    <t>Cream Finance</t>
-  </si>
-  <si>
     <t>DAO Maker</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>Bent Finance</t>
   </si>
   <si>
-    <t>Oracle attack</t>
-  </si>
-  <si>
     <t>The xFORCE platform used a fork of xSUSHI contract which revert the token if transaction fails, they also used Aragon Minime token that return false if a transferForm call fails.</t>
   </si>
   <si>
@@ -140,18 +128,6 @@
     <t>\cite{Bunny_c1, Bunny_c2, Bunny_c3,Bunny_c4, Bunny_c5}</t>
   </si>
   <si>
-    <t>Attacker used two addresses taking out flash loans from MakerDAO and AAVE, which is used as collaterals on CREAM to mint yUSD. Then using the vulerability in the price oracle to munipulate pricing of yUSD drain yUSDVault.</t>
-  </si>
-  <si>
-    <t>Updating price oracle to improve security.</t>
-  </si>
-  <si>
-    <t>130M USD</t>
-  </si>
-  <si>
-    <t>\cite{cream_oct1, cream_oct2, cream_oct3}</t>
-  </si>
-  <si>
     <t>The project drained the vault with users' assets, deleted their website, twitter and telegram.</t>
   </si>
   <si>
@@ -164,33 +140,6 @@
     <t>\cite{arbix1, arbix2}</t>
   </si>
   <si>
-    <t>The lock contract did not contain a duplicate call check for withdraws so attackers could drain funds by calling unlock_position_funds multiple times for their own position ID.</t>
-  </si>
-  <si>
-    <t>Increased short reward cap and updated mirror_short_reward with 100% limit. (However, the attack was only notiecd seven months after.)</t>
-  </si>
-  <si>
-    <t>90M USD</t>
-  </si>
-  <si>
-    <t>\cite{mirror1, mirror4}</t>
-  </si>
-  <si>
-    <t>Terra Blockchain</t>
-  </si>
-  <si>
-    <t>Attacker exploits the reentrancy bug by including a second call to the borrow() function to receive more funds than initially stated. Repeat this to drain large amount of funds.</t>
-  </si>
-  <si>
-    <t>A complete risk assessment.</t>
-  </si>
-  <si>
-    <t>18.8M USD</t>
-  </si>
-  <si>
-    <t>\cite{cream_aug1, cream_aug2, cream_aug3}</t>
-  </si>
-  <si>
     <t>The init() function was vulnerable, attaker initialised 4 token contracts with malicious data then using the emergencyExit() function to drain funds.</t>
   </si>
   <si>
@@ -218,21 +167,6 @@
     <t>\cite{bent1, bent2, bent3}</t>
   </si>
   <si>
-    <t>Attacker could buy cheap LUNC, deposit as collateral and take advantege of the overpricing of LUNC in mirror protocol.</t>
-  </si>
-  <si>
-    <t>Update oracles</t>
-  </si>
-  <si>
-    <t>2M USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\cite{mirror1, mirror2, mirror3} </t>
-  </si>
-  <si>
-    <t>Ethereum blockchain (yearn. finance ecosystem)</t>
-  </si>
-  <si>
     <t>RangeAddress</t>
   </si>
   <si>
@@ -246,6 +180,72 @@
   </si>
   <si>
     <t>FileName</t>
+  </si>
+  <si>
+    <t>Reaper Farm</t>
+  </si>
+  <si>
+    <t>Attack took advantage the the recipient’s account verification had not been set up properly and drained the vault.</t>
+  </si>
+  <si>
+    <t>Harvest Finance</t>
+  </si>
+  <si>
+    <t>The project team closed down the vaults attacked, altered the code and waiting for full audit before lauching again.</t>
+  </si>
+  <si>
+    <t>1.7M USD</t>
+  </si>
+  <si>
+    <t>Fantom Opera Chain</t>
+  </si>
+  <si>
+    <t>Grim finance</t>
+  </si>
+  <si>
+    <t>Badger DAO</t>
+  </si>
+  <si>
+    <t>33.8M USD</t>
+  </si>
+  <si>
+    <t>30M USD</t>
+  </si>
+  <si>
+    <t>120M USD</t>
+  </si>
+  <si>
+    <t>\cite{reaper1, reaper2, reaper3}</t>
+  </si>
+  <si>
+    <t>Attack swaped USDC to USDT to up the price of USDT, depositing USDT into vault and swap back USDT to USDC to gain profit as USDT price fall. This action is repeated to drain the vault.</t>
+  </si>
+  <si>
+    <t>Deposit and withdraw funds within a single transaction is not allowed to avoid flash loan, and withdraw of tokens are made into multiple transactions to minimize damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cite{harvest_c1, harvest_c2, harvest_c3} </t>
+  </si>
+  <si>
+    <t>Attacker exploited a depositFor() function that hadn’t been protected. Users deposite funds in to vaults that attacker inserted their own contract containing the reentrancy deposit loops.</t>
+  </si>
+  <si>
+    <t>Update the code and send in for an audit.</t>
+  </si>
+  <si>
+    <t>\cite{grim1, grim2, grim3, grim4}</t>
+  </si>
+  <si>
+    <t>Project team working with cybersecurity firm to fix the problem, as well as authorities to recover any funds possible.</t>
+  </si>
+  <si>
+    <t>Attack used a compromised API key to periodically inject malicious code into the contract. These codes are triggered when users try to perform transactions, alowing unlimited spend approvals for the attacker’s address.</t>
+  </si>
+  <si>
+    <t>\cite{badger1, badger2, badger3}</t>
+  </si>
+  <si>
+    <t>Major chain</t>
   </si>
 </sst>
 </file>
@@ -288,14 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,6 +306,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,19 +629,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -659,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,606 +663,604 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44391</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44336</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44130</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6">
-        <v>44391</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44565</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44289</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7">
+        <v>44549</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44442</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44774</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>44496</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="7">
-        <v>44336</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="7">
-        <v>44565</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44551</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="6">
-        <v>44289</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7">
-        <v>44477</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="6">
-        <v>44438</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7">
-        <v>44442</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7">
-        <v>44551</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44711</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44532</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
